--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>803311.5726677927</v>
+        <v>800610.356016335</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>110.096520216718</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190665</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.8558163109773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.6619765928418</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>56.18374756169086</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072621</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897749</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.1536992696784</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154326</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.80146357529202</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.77682125736504</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951721</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871392</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488535</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>75.99206038461507</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.948364738452</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>181.5124868292612</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915327</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>14.72012191299901</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>55.11940943821471</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793278</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.88058113793264</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>141.451301207658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634791</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>125.8152577453143</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>55.52079624060374</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.2052365248848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699862</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>143.7703193541478</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>180.8909947756163</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>202.7020590629028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3746,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2811815126423244</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>943.6469137265115</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>677.2692571593335</v>
+        <v>380.48204416864</v>
       </c>
       <c r="W2" t="n">
-        <v>410.8916005921556</v>
+        <v>380.48204416864</v>
       </c>
       <c r="X2" t="n">
-        <v>410.8916005921556</v>
+        <v>380.48204416864</v>
       </c>
       <c r="Y2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.9123684024154</v>
+        <v>197.1648447922849</v>
       </c>
       <c r="C3" t="n">
-        <v>407.9123684024154</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098642</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>651.9818648816627</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>444.1303646761298</v>
+        <v>365.3801818123529</v>
       </c>
       <c r="Y3" t="n">
-        <v>444.1303646761298</v>
+        <v>365.3801818123529</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
         <v>336.5564185430274</v>
@@ -4477,31 +4477,31 @@
         <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>602.9340751102054</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.5564185430274</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>805.2823183112054</v>
+        <v>1136.345205654767</v>
       </c>
       <c r="C5" t="n">
-        <v>805.2823183112054</v>
+        <v>816.591067584287</v>
       </c>
       <c r="D5" t="n">
-        <v>805.2823183112054</v>
+        <v>816.591067584287</v>
       </c>
       <c r="E5" t="n">
-        <v>805.2823183112054</v>
+        <v>430.8028149860428</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2583796549645</v>
+        <v>43.23945355631517</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275198</v>
+        <v>93.76641159275113</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245574</v>
+        <v>239.0325989245555</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825651</v>
+        <v>456.1499114825619</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748886</v>
+        <v>729.4041931748843</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202383</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798418</v>
+        <v>1264.916654798411</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189415</v>
+        <v>1446.535482189407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518258</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518258</v>
+        <v>1389.996673518249</v>
       </c>
       <c r="U5" t="n">
-        <v>1136.345205654776</v>
+        <v>1136.345205654767</v>
       </c>
       <c r="V5" t="n">
-        <v>805.2823183112054</v>
+        <v>1136.345205654767</v>
       </c>
       <c r="W5" t="n">
-        <v>805.2823183112054</v>
+        <v>1136.345205654767</v>
       </c>
       <c r="X5" t="n">
-        <v>805.2823183112054</v>
+        <v>1136.345205654767</v>
       </c>
       <c r="Y5" t="n">
-        <v>805.2823183112054</v>
+        <v>1136.345205654767</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.5062396766753</v>
+        <v>264.6115818588761</v>
       </c>
       <c r="C6" t="n">
-        <v>471.4239532369864</v>
+        <v>264.6115818588761</v>
       </c>
       <c r="D6" t="n">
-        <v>471.4239532369864</v>
+        <v>264.6115818588761</v>
       </c>
       <c r="E6" t="n">
-        <v>312.1864982315309</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563463</v>
+        <v>49.44206107563403</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169455</v>
+        <v>159.6385680169442</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830069</v>
+        <v>354.1339118482958</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537536</v>
+        <v>600.4576725190414</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259768</v>
+        <v>889.0545187259701</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891496</v>
+        <v>1111.317965891488</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090185</v>
+        <v>1270.370911090176</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.75091126173</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.75091126173</v>
+        <v>1385.878273152065</v>
       </c>
       <c r="T6" t="n">
-        <v>1338.846268813415</v>
+        <v>1189.973630703749</v>
       </c>
       <c r="U6" t="n">
-        <v>1110.725185134019</v>
+        <v>961.8525470243533</v>
       </c>
       <c r="V6" t="n">
-        <v>875.5730769022762</v>
+        <v>726.7004387926106</v>
       </c>
       <c r="W6" t="n">
-        <v>875.5730769022762</v>
+        <v>472.463082064409</v>
       </c>
       <c r="X6" t="n">
-        <v>667.7215766967433</v>
+        <v>264.6115818588761</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.7215766967433</v>
+        <v>264.6115818588761</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.3121536034861</v>
+        <v>236.9104562721265</v>
       </c>
       <c r="C7" t="n">
-        <v>295.3121536034861</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>295.3121536034861</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>295.3121536034861</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>148.4222061055757</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>148.4222061055757</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>148.4222061055757</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523443</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223271</v>
+        <v>157.4322756223265</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830397</v>
+        <v>375.1387655830386</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388166</v>
+        <v>615.0688576388147</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974842</v>
+        <v>854.7285647974818</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402744</v>
+        <v>1113.86649040274</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402744</v>
+        <v>910.3578444371293</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792885</v>
+        <v>685.6925863136739</v>
       </c>
       <c r="U7" t="n">
-        <v>600.0613614556601</v>
+        <v>685.6925863136739</v>
       </c>
       <c r="V7" t="n">
-        <v>523.3017045015034</v>
+        <v>685.6925863136739</v>
       </c>
       <c r="W7" t="n">
-        <v>523.3017045015034</v>
+        <v>685.6925863136739</v>
       </c>
       <c r="X7" t="n">
-        <v>295.3121536034861</v>
+        <v>457.7030354156566</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.3121536034861</v>
+        <v>236.9104562721265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1644.250531453059</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.250531453059</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694942</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.1316662333386</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1316662333386</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210028</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1153.888019457758</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>864.7696819615957</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>864.7696819615957</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>864.7696819615957</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>636.7801310635783</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>636.7801310635783</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.274119841216</v>
+        <v>1485.49032913357</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.311602900804</v>
+        <v>1116.527812193158</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.045904294054</v>
+        <v>1116.527812193158</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501953</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592077</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706889</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656954</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479992</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796038</v>
+        <v>3776.999350345375</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377403</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498931</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.34786015536</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>3073.479050142229</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.01329188115</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.873959905338</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>889.4740370626167</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.3445961886582</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>537.3445961886582</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886582</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>389.431502606265</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="F13" t="n">
-        <v>389.431502606265</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2001.067295775871</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1780.175963210312</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.084270159763</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.399781953876</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>946.9826119169153</v>
+        <v>814.5429355999224</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9930610188979</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.9930610188979</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,19 +5352,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
         <v>1540.888753373307</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876686</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876686</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753329</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>430.7826650753329</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>283.8927175774227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>283.8927175774227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>142.1808864196207</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,19 +5838,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.668019898103</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701961</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2319.876964645599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283427</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,46 +5993,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122181</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>149.8982754122181</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>149.8982754122181</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,10 +6303,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
         <v>634.5603720565526</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>1899.284239455936</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075804</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557275</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278206</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9258559154848</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859672</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687974</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.244907039234</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990371</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434706</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155637</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032281</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208351</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.41557511724</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.62299597371</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7631,40 +7631,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.963121559762</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
         <v>240.7066105458822</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636971</v>
+        <v>34.43939438637025</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>21.56058953000888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000672</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878345</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.33029638072912</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>334.520846804414</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.1152795538221</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811044</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>33.38525518063307</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>84.2583541813791</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537252954</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>55.21102825633034</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>25.74504007796179</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.37941682721004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822612</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>142.4141550350963</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>36.51445555167191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>49.43558426092517</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823146</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.1398665102889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904741.1518162835</v>
+        <v>904741.1518162831</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996073.9122004057</v>
+        <v>996073.9122004056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004054</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>996073.9122004057</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996073.9122004055</v>
+        <v>996073.9122004056</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996073.9122004055</v>
+        <v>996073.9122004054</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.353244058</v>
+        <v>384609.3532440577</v>
       </c>
       <c r="F2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
@@ -26344,13 +26344,13 @@
         <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657087</v>
+        <v>132804.2190657061</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929362</v>
+        <v>265413.0723929386</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.1573545768</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704293</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417462</v>
+        <v>30877.42926417402</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049522</v>
+        <v>65018.34502049586</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.40371273061</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.5741320238</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078825</v>
+        <v>210579.7944078832</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8011.893867085435</v>
@@ -26430,31 +26430,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426732042</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426732041</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426732007</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731987</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426732045</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731988</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>8117.31242673199</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731984</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732015</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731987</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731987</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426732034</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667506</v>
+        <v>72593.65038667488</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-558842.7220149421</v>
+        <v>-558842.7220149422</v>
       </c>
       <c r="C6" t="n">
-        <v>15069.26531848239</v>
+        <v>15069.26531848442</v>
       </c>
       <c r="D6" t="n">
-        <v>-61621.91591589595</v>
+        <v>-61621.91591589832</v>
       </c>
       <c r="E6" t="n">
-        <v>-22117.18304499049</v>
+        <v>-22338.3143589649</v>
       </c>
       <c r="F6" t="n">
-        <v>125203.8538161855</v>
+        <v>125169.1158907491</v>
       </c>
       <c r="G6" t="n">
-        <v>314512.1225866142</v>
+        <v>314477.3846611783</v>
       </c>
       <c r="H6" t="n">
-        <v>314512.1225866142</v>
+        <v>314477.3846611783</v>
       </c>
       <c r="I6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611784</v>
       </c>
       <c r="J6" t="n">
-        <v>245512.9681675</v>
+        <v>245478.2302420642</v>
       </c>
       <c r="K6" t="n">
-        <v>283634.6933224395</v>
+        <v>283599.9553970043</v>
       </c>
       <c r="L6" t="n">
-        <v>249493.7775661187</v>
+        <v>249459.0396406824</v>
       </c>
       <c r="M6" t="n">
-        <v>232614.7188738831</v>
+        <v>232579.9809484477</v>
       </c>
       <c r="N6" t="n">
-        <v>264672.5484545906</v>
+        <v>264637.8105291547</v>
       </c>
       <c r="O6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611782</v>
       </c>
       <c r="P6" t="n">
-        <v>314512.1225866141</v>
+        <v>314477.3846611784</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695762</v>
+        <v>717.3319511695742</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154326</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000978</v>
+        <v>103.2769374000958</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479632</v>
+        <v>216.7329409479652</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974112</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139265</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846063</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139265</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284606</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139265</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846063</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>141.0516476615645</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.870954614147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.67736733889</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954739</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>195.9538957621371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.7690764158648</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123266</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.72234647203305</v>
+        <v>23.18831792628112</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233733</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863669</v>
+        <v>99.30025118863702</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>144.9070354130237</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.8682591980359</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951736</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.36018225871365</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374248</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643379</v>
+        <v>1.905236112643635</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>176.1455829392129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>262.3245270325556</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.23620916795073</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.884091088141518e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.472590277831613e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4.945377440890297e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30466,10 +30466,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365128</v>
+        <v>2.88374653736512</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579063</v>
+        <v>29.53316922579054</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756938</v>
+        <v>244.7543826756931</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023597</v>
+        <v>366.8233736023587</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952478</v>
+        <v>455.0768316952466</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791149</v>
+        <v>506.3606591791135</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284037</v>
+        <v>514.5541040284022</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974791</v>
+        <v>485.8788493974777</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562775</v>
+        <v>414.6863567562763</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868887</v>
+        <v>311.4121838868878</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277619</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020792</v>
+        <v>65.71337422020774</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731586</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892102</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270409</v>
+        <v>1.542940423270405</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316422</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189787</v>
+        <v>53.12316808189772</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862627</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453801</v>
+        <v>249.1510419453794</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438667</v>
+        <v>335.0143230438658</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387419</v>
+        <v>390.9459133874179</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189123</v>
+        <v>401.2930884189111</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348679</v>
+        <v>367.1047769348669</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190662</v>
+        <v>294.6339480190653</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739556</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392948</v>
+        <v>95.79765189392921</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399201</v>
+        <v>28.65944163399193</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989059</v>
+        <v>6.219132670989041</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730533</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141855</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572063</v>
+        <v>38.90055892572052</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040294</v>
+        <v>91.45394400402914</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401177</v>
+        <v>150.2869235401173</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545451</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773279</v>
+        <v>202.7697513773273</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.9483399022533</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669602</v>
+        <v>182.8373307669597</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960662</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565119</v>
+        <v>58.16268574565103</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101765</v>
+        <v>22.54303853101759</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060667</v>
+        <v>5.526983886060651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864692</v>
+        <v>0.07055724109864671</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279829</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833332</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,13 +32081,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>151.9914336104081</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>210.3948924365567</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>183.7183104822601</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.7084781490075</v>
+        <v>63.70847814900679</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573792</v>
+        <v>146.7335225573781</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252606</v>
+        <v>219.3104167252594</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518422</v>
+        <v>276.0144259518407</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318128</v>
+        <v>285.1410404318113</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757924</v>
+        <v>255.780637975791</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010079</v>
+        <v>183.4533610010067</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243924</v>
+        <v>89.10649401243833</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959598</v>
+        <v>18.93640691959556</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710211</v>
+        <v>111.3096029710204</v>
       </c>
       <c r="L6" t="n">
-        <v>218.0205327940014</v>
+        <v>196.4599432639916</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654006</v>
+        <v>248.8118794653996</v>
       </c>
       <c r="N6" t="n">
-        <v>269.951376335579</v>
+        <v>291.5119658655846</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904235</v>
+        <v>224.5085324904225</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047359</v>
+        <v>160.6595406047351</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237837</v>
+        <v>267.0505052237831</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142349</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148612</v>
+        <v>219.9055454148607</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391684</v>
+        <v>242.3536283391679</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586809994</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609597</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491162</v>
+        <v>22.1550813749113</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35264,13 +35264,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059646</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.1980957999999</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>20.64972152707474</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26085851453838</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066299</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
